--- a/docs/fbs表格.xlsx
+++ b/docs/fbs表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C0E13-97FA-4A18-AA08-2A1C5F5B65B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68104CD1-6183-4725-90B7-45268E964020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>1. 数据采集</t>
   </si>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>简易脚本环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirements.txt安装脚本环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,29 +413,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +723,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,7 +731,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,7 +744,7 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -752,12 +758,12 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>26</v>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -766,19 +772,19 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -790,7 +796,7 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -802,10 +808,10 @@
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -814,19 +820,19 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">

--- a/docs/fbs表格.xlsx
+++ b/docs/fbs表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68104CD1-6183-4725-90B7-45268E964020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3D41E-F365-4E8F-AE25-5D4F2DBFD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1380" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1. 数据采集</t>
   </si>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>RPA工具实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用tagui全自动化模块运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,31 +228,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 通过调用 java api 获取汇总发票信息和统计信息，
-制作成excel报表。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tagui</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 通过邮箱发送到主管部门。
 邮件中应简要说明此批数据处理的情况。 
 对于算法无法识别的发票，打包通过邮件转发至人工审批</t>
@@ -264,20 +235,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker-compose
-一键部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简易脚本环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirements.txt安装脚本环境</t>
+    <t>编写cmd文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中将已有数据制作成excel报表。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -357,48 +339,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -413,31 +358,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +656,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,9 +677,7 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -756,11 +687,9 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -770,21 +699,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -794,9 +721,9 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -806,11 +733,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -818,28 +745,26 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/fbs表格.xlsx
+++ b/docs/fbs表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3D41E-F365-4E8F-AE25-5D4F2DBFD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EC1AC-F7AB-417C-9C1C-22144D1EDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1380" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>java</t>
+      <t>python</t>
     </r>
     <r>
       <rPr>
@@ -656,7 +656,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
